--- a/results/FrequencyTables/27068471_EnvV5.xlsx
+++ b/results/FrequencyTables/27068471_EnvV5.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.31</v>
+        <v>0.544073932366012</v>
       </c>
       <c r="C2">
-        <v>0.36</v>
+        <v>0.482679459634459</v>
       </c>
       <c r="D2">
-        <v>0.04</v>
+        <v>0.0923565941666421</v>
       </c>
       <c r="E2">
-        <v>0.92</v>
+        <v>0.899049356917915</v>
       </c>
       <c r="F2">
-        <v>0.16</v>
+        <v>0.276657739058775</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0958001000676929</v>
       </c>
       <c r="H2">
-        <v>0.01</v>
+        <v>0.00332577920357889</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.994290255172617</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.0942990846749272</v>
       </c>
       <c r="K2">
-        <v>0.92</v>
+        <v>0.871942784825029</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000323748418047503</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.018895134944227</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00103010860287842</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.000147158371839774</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>5.88633487359096e-05</v>
       </c>
       <c r="Q2">
-        <v>0.98</v>
+        <v>0.998175236189187</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00108897195161433</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.973570356417577</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000117726697471819</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000294316743679548</v>
       </c>
       <c r="V2">
-        <v>0.01</v>
+        <v>0.048856579450805</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0331694970126851</v>
       </c>
       <c r="X2">
-        <v>0.02</v>
+        <v>0.0461488654089531</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.04</v>
+        <v>0.0512405450746093</v>
       </c>
       <c r="C3">
-        <v>0.09</v>
+        <v>0.280012949936722</v>
       </c>
       <c r="D3">
-        <v>0.15</v>
+        <v>0.390205138770345</v>
       </c>
       <c r="E3">
-        <v>0.03</v>
+        <v>0.0251640815846013</v>
       </c>
       <c r="F3">
-        <v>0.83</v>
+        <v>0.621508667628101</v>
       </c>
       <c r="G3">
-        <v>0.47</v>
+        <v>0.45934014186067</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000559201812991141</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00188362715954911</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00441475115519322</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.000323748418047503</v>
       </c>
       <c r="L3">
-        <v>0.24</v>
+        <v>0.499955852488448</v>
       </c>
       <c r="M3">
-        <v>0.98</v>
+        <v>0.9116461135474</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00126556199782206</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000264885069311593</v>
       </c>
       <c r="P3">
-        <v>0.98</v>
+        <v>0.922771286458487</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000412043441151367</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>5.88633487359096e-05</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2.94316743679548e-05</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.999058186420225</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.998057509491715</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0116549430497101</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.024722606469082</v>
       </c>
       <c r="X3">
-        <v>0.01</v>
+        <v>0.0978603172734497</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.393118874532772</v>
       </c>
       <c r="C4">
-        <v>0.55</v>
+        <v>0.214115431026871</v>
       </c>
       <c r="D4">
-        <v>0.75</v>
+        <v>0.363804926862289</v>
       </c>
       <c r="E4">
-        <v>0.03</v>
+        <v>0.0524178120493275</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0495335079612679</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>0.0522117903287518</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>0.99511434205492</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0012361303234541</v>
       </c>
       <c r="J4">
-        <v>0.99</v>
+        <v>0.899755717102746</v>
       </c>
       <c r="K4">
-        <v>0.07</v>
+        <v>0.125879271271743</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.00185419548518115</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00258998734438002</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.000147158371839774</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000294316743679548</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000235453394943638</v>
       </c>
       <c r="Q4">
-        <v>0.02</v>
+        <v>0.000971245254142508</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.998528416281602</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0262824852105836</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000470906789887277</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000264885069311593</v>
       </c>
       <c r="V4">
-        <v>0.08</v>
+        <v>0.0340230155693557</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.93595667657533</v>
       </c>
       <c r="X4">
-        <v>0.97</v>
+        <v>0.816876122082585</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0113900579803985</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0229567060070047</v>
       </c>
       <c r="D5">
-        <v>0.06</v>
+        <v>0.153486181828884</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.0233098860994202</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0.0520352002825441</v>
       </c>
       <c r="G5">
-        <v>0.51</v>
+        <v>0.392324219324837</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00100067692851046</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00258998734438002</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.00141272036966183</v>
       </c>
       <c r="K5">
-        <v>0.01</v>
+        <v>0.00179533213644524</v>
       </c>
       <c r="L5">
-        <v>0.76</v>
+        <v>0.497660181887748</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>0.0668099008152574</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.997527739353092</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999293639815169</v>
       </c>
       <c r="P5">
-        <v>0.02</v>
+        <v>0.0769049651234659</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000441475115519322</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000323748418047503</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>5.88633487359096e-05</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000353180092415458</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.00135385702092592</v>
       </c>
       <c r="V5">
-        <v>0.91</v>
+        <v>0.905406598581393</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00615121994290255</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0390264002119081</v>
       </c>
     </row>
   </sheetData>
